--- a/public/telekeciler.xlsx
+++ b/public/telekeciler.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\3. WES\b.mollaýewa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\OpenServer\domains\cci.gov.tm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C35EF-227F-4240-9CB0-E2945C0A24D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="349">
-  <si>
-    <t>T/B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="348">
   <si>
     <t>Edaranyň ady</t>
   </si>
@@ -1185,7 +1183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1548,22 +1546,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,12 +1564,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1612,7 +1610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1656,7 +1660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1700,7 +1710,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1744,7 +1760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1788,7 +1810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1832,7 +1860,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1876,7 +1910,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1920,7 +1960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1964,7 +2010,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2008,7 +2060,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2052,7 +2110,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2096,7 +2160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2140,7 +2210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2184,7 +2260,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2228,7 +2310,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2272,7 +2360,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2316,7 +2410,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2360,7 +2460,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2404,7 +2510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Рисунок 19"/>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2448,7 +2560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21"/>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2492,7 +2610,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22"/>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2536,7 +2660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Рисунок 23"/>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2580,7 +2710,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Рисунок 24"/>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2624,7 +2760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25"/>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2668,7 +2810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Рисунок 26"/>
+        <xdr:cNvPr id="27" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2712,7 +2860,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27"/>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2756,7 +2910,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPr id="29" name="Рисунок 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2800,7 +2960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30"/>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2844,7 +3010,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Рисунок 32"/>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2888,7 +3060,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33"/>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2932,7 +3110,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34"/>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2976,7 +3160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35"/>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3020,7 +3210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36" descr="https://ynamdar.com/images/brand/66001.png"/>
+        <xdr:cNvPr id="37" name="Рисунок 36" descr="https://ynamdar.com/images/brand/66001.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3075,7 +3271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 37" descr="https://ynamdar.com/images/brand/8200.png"/>
+        <xdr:cNvPr id="38" name="Рисунок 37" descr="https://ynamdar.com/images/brand/8200.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3130,7 +3332,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Рисунок 38" descr="https://ynamdar.com/images/brand/85300.png"/>
+        <xdr:cNvPr id="39" name="Рисунок 38" descr="https://ynamdar.com/images/brand/85300.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3185,7 +3393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Рисунок 39" descr="https://ynamdar.com/images/brand/60001.png"/>
+        <xdr:cNvPr id="40" name="Рисунок 39" descr="https://ynamdar.com/images/brand/60001.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3240,7 +3454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Рисунок 40" descr="https://ynamdar.com/images/brand/70001.png"/>
+        <xdr:cNvPr id="41" name="Рисунок 40" descr="https://ynamdar.com/images/brand/70001.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3295,7 +3515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Рисунок 41" descr="https://ynamdar.com/images/brand/53001.png"/>
+        <xdr:cNvPr id="42" name="Рисунок 41" descr="https://ynamdar.com/images/brand/53001.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3350,7 +3576,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Рисунок 42" descr="https://ynamdar.com/images/brand/5000.png"/>
+        <xdr:cNvPr id="43" name="Рисунок 42" descr="https://ynamdar.com/images/brand/5000.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3405,7 +3637,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Рисунок 43"/>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3449,7 +3687,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Рисунок 44"/>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3493,7 +3737,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Рисунок 45"/>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3537,7 +3787,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Рисунок 46" descr="https://ynamdar.com/images/brand/8405.png"/>
+        <xdr:cNvPr id="47" name="Рисунок 46" descr="https://ynamdar.com/images/brand/8405.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3592,7 +3848,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Рисунок 47" descr="ИП Parahat Hususy Karhanasy | OK.RU"/>
+        <xdr:cNvPr id="48" name="Рисунок 47" descr="ИП Parahat Hususy Karhanasy | OK.RU">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3647,7 +3909,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Рисунок 48"/>
+        <xdr:cNvPr id="49" name="Рисунок 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3691,7 +3959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Рисунок 49"/>
+        <xdr:cNvPr id="50" name="Рисунок 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3735,7 +4009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Рисунок 50"/>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3779,7 +4059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Рисунок 51"/>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3823,7 +4109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Рисунок 52"/>
+        <xdr:cNvPr id="53" name="Рисунок 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3867,7 +4159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="AutoShape 10" descr="GÜNAÝ"/>
+        <xdr:cNvPr id="1034" name="AutoShape 10" descr="GÜNAÝ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3909,7 +4207,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1035" name="AutoShape 11" descr="GÜNAÝ"/>
+        <xdr:cNvPr id="1035" name="AutoShape 11" descr="GÜNAÝ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3951,7 +4255,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="AutoShape 12" descr="GÜNAÝ"/>
+        <xdr:cNvPr id="1036" name="AutoShape 12" descr="GÜNAÝ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3993,7 +4303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Рисунок 53"/>
+        <xdr:cNvPr id="54" name="Рисунок 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4043,7 +4359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Рисунок 54"/>
+        <xdr:cNvPr id="55" name="Рисунок 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4087,7 +4409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Рисунок 55"/>
+        <xdr:cNvPr id="56" name="Рисунок 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4131,7 +4459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Рисунок 56"/>
+        <xdr:cNvPr id="57" name="Рисунок 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4175,7 +4509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Рисунок 57"/>
+        <xdr:cNvPr id="58" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4219,7 +4559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Рисунок 58"/>
+        <xdr:cNvPr id="59" name="Рисунок 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4263,7 +4609,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Рисунок 59"/>
+        <xdr:cNvPr id="60" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4307,7 +4659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Рисунок 62"/>
+        <xdr:cNvPr id="63" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4351,7 +4709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1024" name="Рисунок 1023"/>
+        <xdr:cNvPr id="1024" name="Рисунок 1023">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4395,7 +4759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Рисунок 67" descr="Saraý | Begler ýoly HK - Объявления"/>
+        <xdr:cNvPr id="68" name="Рисунок 67" descr="Saraý | Begler ýoly HK - Объявления">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4450,7 +4820,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Рисунок 1024"/>
+        <xdr:cNvPr id="1025" name="Рисунок 1024">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4494,7 +4870,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Рисунок 1025"/>
+        <xdr:cNvPr id="1026" name="Рисунок 1025">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4538,7 +4920,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="AutoShape 14" descr="https://akhunji.com.tm/assets/img/logo_w.svg"/>
+        <xdr:cNvPr id="1038" name="AutoShape 14" descr="https://akhunji.com.tm/assets/img/logo_w.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4580,7 +4968,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1039" name="AutoShape 15" descr="https://akhunji.com.tm/assets/img/logo_w.svg"/>
+        <xdr:cNvPr id="1039" name="AutoShape 15" descr="https://akhunji.com.tm/assets/img/logo_w.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4622,7 +5016,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="AutoShape 16" descr="https://akhunji.com.tm/assets/img/logo_w.svg"/>
+        <xdr:cNvPr id="1040" name="AutoShape 16" descr="https://akhunji.com.tm/assets/img/logo_w.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4664,7 +5064,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1041" name="AutoShape 17" descr="https://akhunji.com.tm/assets/img/logo_w.svg"/>
+        <xdr:cNvPr id="1041" name="AutoShape 17" descr="https://akhunji.com.tm/assets/img/logo_w.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4706,7 +5112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="AutoShape 18" descr="https://akhunji.com.tm/assets/img/logo_w.svg"/>
+        <xdr:cNvPr id="1042" name="AutoShape 18" descr="https://akhunji.com.tm/assets/img/logo_w.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4748,7 +5160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1043" name="AutoShape 19" descr="https://akhunji.com.tm/assets/img/logo.svg"/>
+        <xdr:cNvPr id="1043" name="AutoShape 19" descr="https://akhunji.com.tm/assets/img/logo.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4790,7 +5208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Рисунок 1026"/>
+        <xdr:cNvPr id="1027" name="Рисунок 1026">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4834,7 +5258,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Рисунок 1027"/>
+        <xdr:cNvPr id="1028" name="Рисунок 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4878,7 +5308,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20"/>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4922,7 +5358,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4966,7 +5408,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="AutoShape 1" descr="https://trade.com.tm/media/images/logos/download.png"/>
+        <xdr:cNvPr id="32" name="AutoShape 1" descr="https://trade.com.tm/media/images/logos/download.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5008,7 +5456,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Рисунок 60"/>
+        <xdr:cNvPr id="61" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5052,7 +5506,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Рисунок 61"/>
+        <xdr:cNvPr id="62" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5096,7 +5556,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Рисунок 63"/>
+        <xdr:cNvPr id="64" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5140,7 +5606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Рисунок 64"/>
+        <xdr:cNvPr id="65" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5184,7 +5656,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Рисунок 65"/>
+        <xdr:cNvPr id="66" name="Рисунок 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5228,7 +5706,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Рисунок 66"/>
+        <xdr:cNvPr id="67" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5272,7 +5756,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Рисунок 68"/>
+        <xdr:cNvPr id="69" name="Рисунок 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5316,7 +5806,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Рисунок 69"/>
+        <xdr:cNvPr id="70" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5360,7 +5856,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Рисунок 70"/>
+        <xdr:cNvPr id="71" name="Рисунок 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5404,7 +5906,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Рисунок 71"/>
+        <xdr:cNvPr id="72" name="Рисунок 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5448,7 +5956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="AutoShape 2" descr="Maya Group"/>
+        <xdr:cNvPr id="73" name="AutoShape 2" descr="Maya Group">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5490,7 +6004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Рисунок 73"/>
+        <xdr:cNvPr id="74" name="Рисунок 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5534,7 +6054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Рисунок 74"/>
+        <xdr:cNvPr id="75" name="Рисунок 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5578,7 +6104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Рисунок 75"/>
+        <xdr:cNvPr id="76" name="Рисунок 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5622,7 +6154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Рисунок 76"/>
+        <xdr:cNvPr id="77" name="Рисунок 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5666,7 +6204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Рисунок 78"/>
+        <xdr:cNvPr id="79" name="Рисунок 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5710,7 +6254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Рисунок 80"/>
+        <xdr:cNvPr id="81" name="Рисунок 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5754,7 +6304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Рисунок 81"/>
+        <xdr:cNvPr id="82" name="Рисунок 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5798,7 +6354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Рисунок 82"/>
+        <xdr:cNvPr id="83" name="Рисунок 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5842,7 +6404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Рисунок 83"/>
+        <xdr:cNvPr id="84" name="Рисунок 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5886,7 +6454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Рисунок 84"/>
+        <xdr:cNvPr id="85" name="Рисунок 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5930,7 +6504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Рисунок 85"/>
+        <xdr:cNvPr id="86" name="Рисунок 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5974,7 +6554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Рисунок 86"/>
+        <xdr:cNvPr id="87" name="Рисунок 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6018,7 +6604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Рисунок 87"/>
+        <xdr:cNvPr id="88" name="Рисунок 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6062,7 +6654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Рисунок 88"/>
+        <xdr:cNvPr id="89" name="Рисунок 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6106,7 +6704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Рисунок 89"/>
+        <xdr:cNvPr id="90" name="Рисунок 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6150,7 +6754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Рисунок 91"/>
+        <xdr:cNvPr id="92" name="Рисунок 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6194,7 +6804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Рисунок 92"/>
+        <xdr:cNvPr id="93" name="Рисунок 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6238,7 +6854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Рисунок 93"/>
+        <xdr:cNvPr id="94" name="Рисунок 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6282,7 +6904,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Рисунок 94"/>
+        <xdr:cNvPr id="95" name="Рисунок 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6326,7 +6954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Рисунок 95"/>
+        <xdr:cNvPr id="96" name="Рисунок 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6370,7 +7004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Рисунок 96"/>
+        <xdr:cNvPr id="97" name="Рисунок 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6414,7 +7054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Рисунок 97"/>
+        <xdr:cNvPr id="98" name="Рисунок 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6458,7 +7104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Рисунок 98"/>
+        <xdr:cNvPr id="99" name="Рисунок 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6502,7 +7154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Рисунок 99"/>
+        <xdr:cNvPr id="100" name="Рисунок 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6546,7 +7204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Рисунок 100"/>
+        <xdr:cNvPr id="101" name="Рисунок 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6590,7 +7254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Рисунок 101"/>
+        <xdr:cNvPr id="102" name="Рисунок 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6634,7 +7304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Рисунок 103"/>
+        <xdr:cNvPr id="104" name="Рисунок 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6678,7 +7354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Рисунок 105"/>
+        <xdr:cNvPr id="106" name="Рисунок 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6722,7 +7404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Рисунок 106"/>
+        <xdr:cNvPr id="107" name="Рисунок 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6766,7 +7454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Рисунок 107"/>
+        <xdr:cNvPr id="108" name="Рисунок 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6810,7 +7504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Рисунок 108"/>
+        <xdr:cNvPr id="109" name="Рисунок 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6854,7 +7554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Рисунок 109"/>
+        <xdr:cNvPr id="110" name="Рисунок 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6898,7 +7604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Рисунок 110"/>
+        <xdr:cNvPr id="111" name="Рисунок 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6942,7 +7654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Рисунок 111"/>
+        <xdr:cNvPr id="112" name="Рисунок 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6986,7 +7704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Рисунок 112"/>
+        <xdr:cNvPr id="113" name="Рисунок 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7030,7 +7754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Рисунок 113"/>
+        <xdr:cNvPr id="114" name="Рисунок 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7074,7 +7804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Рисунок 114"/>
+        <xdr:cNvPr id="115" name="Рисунок 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7118,7 +7854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Рисунок 115"/>
+        <xdr:cNvPr id="116" name="Рисунок 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7162,7 +7904,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="Рисунок 116"/>
+        <xdr:cNvPr id="117" name="Рисунок 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7206,7 +7954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Рисунок 117"/>
+        <xdr:cNvPr id="118" name="Рисунок 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7250,7 +8004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="Рисунок 122"/>
+        <xdr:cNvPr id="123" name="Рисунок 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7294,7 +8054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="Рисунок 124"/>
+        <xdr:cNvPr id="125" name="Рисунок 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7338,7 +8104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="Рисунок 125"/>
+        <xdr:cNvPr id="126" name="Рисунок 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7382,7 +8154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="127" name="Рисунок 126"/>
+        <xdr:cNvPr id="127" name="Рисунок 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7426,7 +8204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Рисунок 1028"/>
+        <xdr:cNvPr id="1029" name="Рисунок 1028">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7470,7 +8254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Рисунок 77"/>
+        <xdr:cNvPr id="78" name="Рисунок 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7514,7 +8304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Рисунок 79"/>
+        <xdr:cNvPr id="80" name="Рисунок 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7558,7 +8354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Рисунок 90"/>
+        <xdr:cNvPr id="91" name="Рисунок 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7602,7 +8404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Рисунок 102"/>
+        <xdr:cNvPr id="103" name="Рисунок 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7646,7 +8454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Рисунок 104"/>
+        <xdr:cNvPr id="105" name="Рисунок 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7690,7 +8504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="Рисунок 118"/>
+        <xdr:cNvPr id="119" name="Рисунок 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7734,7 +8554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="120" name="Рисунок 119"/>
+        <xdr:cNvPr id="120" name="Рисунок 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7778,7 +8604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="Рисунок 120"/>
+        <xdr:cNvPr id="121" name="Рисунок 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7822,7 +8654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="Рисунок 121"/>
+        <xdr:cNvPr id="122" name="Рисунок 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7866,7 +8704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="Рисунок 123"/>
+        <xdr:cNvPr id="124" name="Рисунок 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7910,7 +8754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Рисунок 1029"/>
+        <xdr:cNvPr id="1030" name="Рисунок 1029">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7954,7 +8804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Рисунок 1030"/>
+        <xdr:cNvPr id="1031" name="Рисунок 1030">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7998,7 +8854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Рисунок 1031"/>
+        <xdr:cNvPr id="1032" name="Рисунок 1031">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8042,7 +8904,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Рисунок 1032"/>
+        <xdr:cNvPr id="1033" name="Рисунок 1032">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8086,7 +8954,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1037" name="Рисунок 1036"/>
+        <xdr:cNvPr id="1037" name="Рисунок 1036">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8130,7 +9004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1044" name="Рисунок 1043"/>
+        <xdr:cNvPr id="1044" name="Рисунок 1043">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8174,7 +9054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1045" name="Рисунок 1044"/>
+        <xdr:cNvPr id="1045" name="Рисунок 1044">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8218,7 +9104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1046" name="Рисунок 1045"/>
+        <xdr:cNvPr id="1046" name="Рисунок 1045">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8262,7 +9154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1047" name="Рисунок 1046"/>
+        <xdr:cNvPr id="1047" name="Рисунок 1046">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8306,7 +9204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Рисунок 152"/>
+        <xdr:cNvPr id="153" name="Рисунок 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8350,7 +9254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1049" name="Рисунок 1048"/>
+        <xdr:cNvPr id="1049" name="Рисунок 1048">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8394,7 +9304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1050" name="Рисунок 1049"/>
+        <xdr:cNvPr id="1050" name="Рисунок 1049">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8438,7 +9354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="Рисунок 1050"/>
+        <xdr:cNvPr id="1051" name="Рисунок 1050">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8482,7 +9404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1052" name="Рисунок 1051"/>
+        <xdr:cNvPr id="1052" name="Рисунок 1051">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8526,7 +9454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1053" name="Рисунок 1052"/>
+        <xdr:cNvPr id="1053" name="Рисунок 1052">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8570,7 +9504,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1054" name="Рисунок 1053"/>
+        <xdr:cNvPr id="1054" name="Рисунок 1053">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8614,7 +9554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1055" name="Рисунок 1054"/>
+        <xdr:cNvPr id="1055" name="Рисунок 1054">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8658,7 +9604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1056" name="Рисунок 1055"/>
+        <xdr:cNvPr id="1056" name="Рисунок 1055">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8702,7 +9654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1057" name="Рисунок 1056"/>
+        <xdr:cNvPr id="1057" name="Рисунок 1056">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8746,7 +9704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1058" name="Рисунок 1057"/>
+        <xdr:cNvPr id="1058" name="Рисунок 1057">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8790,7 +9754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1048" name="Рисунок 1047"/>
+        <xdr:cNvPr id="1048" name="Рисунок 1047">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8834,7 +9804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1059" name="Рисунок 1058"/>
+        <xdr:cNvPr id="1059" name="Рисунок 1058">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8878,7 +9854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1060" name="Рисунок 1059"/>
+        <xdr:cNvPr id="1060" name="Рисунок 1059">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8922,7 +9904,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1061" name="Рисунок 1060"/>
+        <xdr:cNvPr id="1061" name="Рисунок 1060">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8966,7 +9954,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="167" name="Group 48"/>
+        <xdr:cNvPr id="167" name="Group 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8979,7 +9973,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="168" name="Shape 7"/>
+          <xdr:cNvPr id="168" name="Shape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9050,7 +10050,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="169" name="Shape 8"/>
+          <xdr:cNvPr id="169" name="Shape 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9169,7 +10175,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="170" name="Shape 9"/>
+          <xdr:cNvPr id="170" name="Shape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9278,7 +10290,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="171" name="Shape 10"/>
+          <xdr:cNvPr id="171" name="Shape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9400,7 +10418,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="172" name="Shape 11"/>
+          <xdr:cNvPr id="172" name="Shape 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9531,7 +10555,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="173" name="Shape 12"/>
+          <xdr:cNvPr id="173" name="Shape 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9648,7 +10678,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="174" name="Shape 13"/>
+          <xdr:cNvPr id="174" name="Shape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9726,7 +10762,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="175" name="Shape 14"/>
+          <xdr:cNvPr id="175" name="Shape 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9813,7 +10855,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="176" name="Shape 15"/>
+          <xdr:cNvPr id="176" name="Shape 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9900,7 +10948,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="177" name="Shape 16"/>
+          <xdr:cNvPr id="177" name="Shape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10244,12 +11298,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10260,36 +11312,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -10298,10 +11348,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -10310,10 +11360,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -10322,10 +11372,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10333,10 +11383,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,10 +11394,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -10356,10 +11406,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -10367,10 +11417,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -10378,10 +11428,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -10389,10 +11439,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,10 +11450,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10411,10 +11461,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10422,10 +11472,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10433,10 +11483,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10444,10 +11494,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10455,10 +11505,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -10466,10 +11516,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10477,10 +11527,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10488,10 +11538,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10499,10 +11549,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,10 +11560,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10521,10 +11571,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10532,10 +11582,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10543,10 +11593,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10554,10 +11604,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10565,29 +11615,29 @@
         <v>26</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -10596,10 +11646,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10607,10 +11657,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10618,10 +11668,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10629,10 +11679,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10640,10 +11690,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10651,10 +11701,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10662,10 +11712,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10673,10 +11723,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10684,10 +11734,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10695,10 +11745,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -10706,10 +11756,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10717,10 +11767,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10728,10 +11778,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10739,10 +11789,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10750,10 +11800,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10761,10 +11811,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -10772,10 +11822,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10783,10 +11833,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10794,10 +11844,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10805,10 +11855,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10816,10 +11866,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -10827,10 +11877,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10838,10 +11888,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10849,10 +11899,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10860,10 +11910,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10871,10 +11921,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10882,10 +11932,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10893,10 +11943,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,10 +11954,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -10915,10 +11965,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10926,10 +11976,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10937,28 +11987,28 @@
         <v>59</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
         <v>55</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
     </row>
     <row r="64" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>60</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10966,10 +12016,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10977,10 +12027,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10988,28 +12038,28 @@
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
     </row>
     <row r="69" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>64</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -11017,10 +12067,10 @@
         <v>65</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11028,10 +12078,10 @@
         <v>66</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -11039,10 +12089,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11050,28 +12100,28 @@
         <v>68</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
     </row>
     <row r="75" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>69</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -11079,10 +12129,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11090,10 +12140,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11101,10 +12151,10 @@
         <v>72</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -11112,10 +12162,10 @@
         <v>73</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11123,10 +12173,10 @@
         <v>74</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11134,10 +12184,10 @@
         <v>75</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -11145,10 +12195,10 @@
         <v>76</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11156,25 +12206,25 @@
         <v>77</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
     </row>
     <row r="85" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>78</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11182,10 +12232,10 @@
         <v>79</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -11193,10 +12243,10 @@
         <v>80</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11204,10 +12254,10 @@
         <v>81</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -11215,10 +12265,10 @@
         <v>82</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11226,10 +12276,10 @@
         <v>83</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11237,10 +12287,10 @@
         <v>84</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11248,10 +12298,10 @@
         <v>85</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -11259,10 +12309,10 @@
         <v>86</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11270,10 +12320,10 @@
         <v>87</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11281,10 +12331,10 @@
         <v>88</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -11292,10 +12342,10 @@
         <v>89</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11303,10 +12353,10 @@
         <v>90</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11314,10 +12364,10 @@
         <v>91</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -11325,10 +12375,10 @@
         <v>92</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11336,10 +12386,10 @@
         <v>93</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -11347,10 +12397,10 @@
         <v>94</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11358,10 +12408,10 @@
         <v>95</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11369,10 +12419,10 @@
         <v>96</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11380,10 +12430,10 @@
         <v>97</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -11391,10 +12441,10 @@
         <v>98</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11402,10 +12452,10 @@
         <v>99</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11413,10 +12463,10 @@
         <v>100</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11424,10 +12474,10 @@
         <v>101</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -11435,10 +12485,10 @@
         <v>102</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -11446,10 +12496,10 @@
         <v>103</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11457,10 +12507,10 @@
         <v>104</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11468,10 +12518,10 @@
         <v>105</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11479,10 +12529,10 @@
         <v>106</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -11490,10 +12540,10 @@
         <v>107</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11501,10 +12551,10 @@
         <v>108</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11512,10 +12562,10 @@
         <v>109</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11523,10 +12573,10 @@
         <v>110</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11534,10 +12584,10 @@
         <v>111</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -11545,10 +12595,10 @@
         <v>112</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11556,10 +12606,10 @@
         <v>113</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11567,10 +12617,10 @@
         <v>114</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -11578,10 +12628,10 @@
         <v>115</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11589,10 +12639,10 @@
         <v>116</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11600,10 +12650,10 @@
         <v>117</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -11611,10 +12661,10 @@
         <v>118</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -11622,10 +12672,10 @@
         <v>119</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11633,10 +12683,10 @@
         <v>120</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11644,10 +12694,10 @@
         <v>121</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11655,10 +12705,10 @@
         <v>122</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -11666,10 +12716,10 @@
         <v>123</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11677,10 +12727,10 @@
         <v>124</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -11688,10 +12738,10 @@
         <v>125</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -11699,10 +12749,10 @@
         <v>126</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -11710,10 +12760,10 @@
         <v>127</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11721,10 +12771,10 @@
         <v>128</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11732,10 +12782,10 @@
         <v>129</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11743,10 +12793,10 @@
         <v>130</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11754,28 +12804,28 @@
         <v>131</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C138" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C139" s="46"/>
-      <c r="D139" s="46"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="52"/>
     </row>
     <row r="140" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21">
         <v>132</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11783,10 +12833,10 @@
         <v>133</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11794,10 +12844,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D142" s="10"/>
     </row>
@@ -11806,10 +12856,10 @@
         <v>135</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11817,10 +12867,10 @@
         <v>136</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11828,10 +12878,10 @@
         <v>137</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11839,10 +12889,10 @@
         <v>138</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -11850,10 +12900,10 @@
         <v>139</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -11861,10 +12911,10 @@
         <v>140</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11872,10 +12922,10 @@
         <v>141</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D149" s="10"/>
     </row>
@@ -11884,10 +12934,10 @@
         <v>142</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -11895,10 +12945,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D151" s="10"/>
     </row>
@@ -11907,10 +12957,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11918,10 +12968,10 @@
         <v>145</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D153" s="10"/>
     </row>
@@ -11930,10 +12980,10 @@
         <v>146</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -11941,10 +12991,10 @@
         <v>147</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11952,10 +13002,10 @@
         <v>148</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11963,10 +13013,10 @@
         <v>149</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D157" s="9"/>
     </row>
@@ -11975,28 +13025,28 @@
         <v>150</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C158" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C159" s="48"/>
-      <c r="D159" s="48"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
     </row>
     <row r="160" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>151</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12004,7 +13054,7 @@
         <v>152</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12012,29 +13062,29 @@
         <v>153</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
-      <c r="B163" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C163" s="49"/>
-      <c r="D163" s="49"/>
+      <c r="B163" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" s="54"/>
+      <c r="D163" s="54"/>
     </row>
     <row r="164" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>154</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12042,10 +13092,10 @@
         <v>155</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12053,10 +13103,10 @@
         <v>156</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12064,10 +13114,10 @@
         <v>157</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -12075,10 +13125,10 @@
         <v>158</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12086,7 +13136,7 @@
         <v>159</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C169" s="42"/>
     </row>
@@ -12095,10 +13145,10 @@
         <v>160</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12106,28 +13156,28 @@
         <v>161</v>
       </c>
       <c r="B171" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B172" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C171" s="34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C172" s="46"/>
-      <c r="D172" s="46"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="52"/>
     </row>
     <row r="173" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21">
         <v>162</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C173" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12135,10 +13185,10 @@
         <v>163</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12146,10 +13196,10 @@
         <v>164</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12157,10 +13207,10 @@
         <v>165</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -12168,10 +13218,10 @@
         <v>166</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12179,10 +13229,10 @@
         <v>167</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D178" s="10"/>
     </row>
@@ -12191,10 +13241,10 @@
         <v>168</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12202,10 +13252,10 @@
         <v>169</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12213,10 +13263,10 @@
         <v>170</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12224,29 +13274,29 @@
         <v>171</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B163:D163"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B163:D163"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C166" r:id="rId1" display="info@itpark.tm   +993 12 46-12-47/86"/>
-    <hyperlink ref="C23" r:id="rId2" display="joshgun.durdyev@gmail.com , +99365-25-95-08"/>
-    <hyperlink ref="C179" r:id="rId3"/>
+    <hyperlink ref="C166" r:id="rId1" display="info@itpark.tm   +993 12 46-12-47/86" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" display="joshgun.durdyev@gmail.com , +99365-25-95-08" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C179" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
